--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -39,29 +33,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">Доплатить по новому тарифу          2029,08-1998 =31,08       </t>
-  </si>
-  <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>доплата</t>
-  </si>
-  <si>
-    <t>общая переплата 87,52 составила 20 квт/ч(-2,28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переплата </t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итог за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,48 +79,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,10 +123,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -179,44 +133,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -229,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,60 +159,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,10 +270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -600,342 +479,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>43459</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30111</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
+        <v>43522</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30555</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM(C3,-C2)</f>
+        <v>444</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2029.08</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>43550</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30999</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D12" si="1">SUM(C4,-C3)</f>
+        <v>444</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2029.08</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>43557</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>43585</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31436</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>437</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>1997.0900000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1997.09</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1997.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
+        <v>43679</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>31654</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>978.82</v>
+      </c>
+      <c r="G7" s="11">
+        <v>978.82</v>
+      </c>
+      <c r="H7" s="11">
+        <v>996.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>43746</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32092</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>1966.6200000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1966.62</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2001.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
+        <v>43775</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32530</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>1966.6200000000001</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1966.62</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2001.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12">
+        <v>43775</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32550</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>89.800000000000011</v>
+      </c>
+      <c r="G10" s="11">
+        <v>89.8</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
         <v>43815</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
         <v>33218</v>
       </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
         <v>668</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E11" s="3">
         <v>4.49</v>
       </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
         <v>2999.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23">
-        <v>-2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>43775</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>32550</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>20</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="G11" s="11">
+        <v>2999.32</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3002.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>43892</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33663</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="E12" s="3">
         <v>4.49</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>89.800000000000011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
-        <v>35.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>43775</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>32530</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>438</v>
-      </c>
-      <c r="E7" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>1966.6200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19">
-        <v>35.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>43746</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>32092</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(C7-C9)</f>
-        <v>438</v>
-      </c>
-      <c r="E9" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>1966.6200000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17">
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>43679</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>31654</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C12)</f>
-        <v>218</v>
-      </c>
-      <c r="E11" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>978.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>43585</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>31436</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12,-C15)</f>
-        <v>437</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>1997.0900000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>43557</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1998.05</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2001.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43550</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43550</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>30999</v>
-      </c>
-      <c r="D15" s="3">
-        <v>444</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>2029.0800000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43522</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43522</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>30555</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17-C18</f>
-        <v>444</v>
-      </c>
-      <c r="E17" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>2029.0800000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43459</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>30111</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="G13" s="11">
+        <f>SUM(G2:G12)</f>
+        <v>16054.479999999996</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(H2:H12)</f>
+        <v>16060.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <f>SUM(H13,-G13)</f>
+        <v>5.9400000000041473</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -943,12 +838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,12 +852,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -51,11 +51,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +270,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -479,17 +481,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -503,7 +505,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -529,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43459</v>
       </c>
@@ -545,7 +547,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43522</v>
       </c>
@@ -573,7 +575,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43550</v>
       </c>
@@ -601,7 +603,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43557</v>
       </c>
@@ -615,7 +617,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43585</v>
       </c>
@@ -643,7 +645,7 @@
         <v>1997.09</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43679</v>
       </c>
@@ -671,7 +673,7 @@
         <v>996.26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43746</v>
       </c>
@@ -699,7 +701,7 @@
         <v>2001.66</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43775</v>
       </c>
@@ -727,7 +729,7 @@
         <v>2001.66</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43775</v>
       </c>
@@ -753,7 +755,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43815</v>
       </c>
@@ -781,7 +783,7 @@
         <v>3002.49</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43892</v>
       </c>
@@ -809,25 +811,53 @@
         <v>2001.66</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>34110</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="2">SUM(C13,-C12)</f>
+        <v>447</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13" si="3">D13*E13</f>
+        <v>2007.0300000000002</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2007.03</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2001.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="11">
-        <f>SUM(G2:G12)</f>
-        <v>16054.479999999996</v>
-      </c>
-      <c r="H13" s="11">
-        <f>SUM(H2:H12)</f>
-        <v>16060.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <f>SUM(G2:G13)</f>
+        <v>18061.509999999995</v>
+      </c>
       <c r="H14" s="11">
-        <f>SUM(H13,-G13)</f>
-        <v>5.9400000000041473</v>
+        <f>SUM(H2:H13)</f>
+        <v>18062.080000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>0.57000000000698492</v>
       </c>
     </row>
   </sheetData>
@@ -838,12 +868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,12 +882,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -485,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -840,24 +840,52 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>34556</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="4">SUM(C14,-C13)</f>
+        <v>446</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14" si="5">D14*E14</f>
+        <v>2002.5400000000002</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2002.54</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2001.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G13)</f>
-        <v>18061.509999999995</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H13)</f>
-        <v>18062.080000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <f>SUM(G3:G14)</f>
+        <v>20064.049999999996</v>
+      </c>
       <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>0.57000000000698492</v>
+        <f>SUM(H3:H14)</f>
+        <v>20063.740000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <f>SUM(H15,-G15)</f>
+        <v>-0.30999999999403371</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -485,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,24 +868,52 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="A15" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>35001</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="6">SUM(C15,-C14)</f>
+        <v>445</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15" si="7">D15*E15</f>
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1998.05</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2001.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="11">
-        <f>SUM(G3:G14)</f>
-        <v>20064.049999999996</v>
-      </c>
-      <c r="H15" s="11">
-        <f>SUM(H3:H14)</f>
-        <v>20063.740000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <f>SUM(G3:G15)</f>
+        <v>22062.099999999995</v>
+      </c>
       <c r="H16" s="11">
-        <f>SUM(H15,-G15)</f>
-        <v>-0.30999999999403371</v>
+        <f>SUM(H3:H15)</f>
+        <v>22065.4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
+        <v>3.3000000000065484</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,12 +607,24 @@
       <c r="A5" s="8">
         <v>43557</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
       <c r="H5" s="11">
         <v>63.6</v>
       </c>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итог за период</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,16 +905,31 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>9</v>
+      <c r="A16" s="4">
+        <v>44098</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>35426</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16" si="8">SUM(C16,-C15)</f>
+        <v>425</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16" si="9">D16*E16</f>
+        <v>2001.75</v>
       </c>
       <c r="G16" s="11">
-        <f>SUM(G3:G15)</f>
-        <v>22062.099999999995</v>
+        <v>2001.75</v>
       </c>
       <c r="H16" s="11">
-        <f>SUM(H3:H15)</f>
-        <v>22065.4</v>
+        <v>2001.66</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
@@ -925,7 +937,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11">
         <f>SUM(H16,-G16)</f>
-        <v>3.3000000000065484</v>
+        <v>-8.9999999999918145E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>пени 108 дн</t>
   </si>
 </sst>
 </file>
@@ -82,15 +88,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,11 +151,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,6 +198,20 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -932,12 +969,84 @@
         <v>2001.66</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
-        <v>-8.9999999999918145E-2</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>36490</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17" si="10">SUM(C17,-C16)</f>
+        <v>1064</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17" si="11">D17*E17</f>
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="G17" s="18">
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="H17" s="18">
+        <v>5000.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>340.05</v>
+      </c>
+      <c r="G18" s="18">
+        <v>340.05</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="16">
+        <f>SUM(G3:G18)</f>
+        <v>29415.339999999993</v>
+      </c>
+      <c r="H19" s="16">
+        <f>SUM(H3:H18)</f>
+        <v>29067.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="18">
+        <f>SUM(H19,-G19)</f>
+        <v>-347.47999999999229</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>итого</t>
-  </si>
-  <si>
-    <t>пени 108 дн</t>
   </si>
 </sst>
 </file>
@@ -166,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -208,9 +205,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +516,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,37 +984,39 @@
         <f t="shared" ref="F17" si="11">D17*E17</f>
         <v>5011.4399999999996</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>5011.4399999999996</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>5000.8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44207</v>
+        <v>44342</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>36915</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18" si="12">SUM(C18,-C17)</f>
+        <v>425</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>340.05</v>
-      </c>
-      <c r="G18" s="18">
-        <v>340.05</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18" si="13">D18*E18</f>
+        <v>2001.75</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2001.75</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1997.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,19 +1030,19 @@
       </c>
       <c r="G19" s="16">
         <f>SUM(G3:G18)</f>
-        <v>29415.339999999993</v>
+        <v>31077.039999999994</v>
       </c>
       <c r="H19" s="16">
         <f>SUM(H3:H18)</f>
-        <v>29067.86</v>
+        <v>31065.360000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f>SUM(H19,-G19)</f>
-        <v>-347.47999999999229</v>
+        <v>-11.679999999993015</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -85,7 +85,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -206,6 +212,10 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G3" sqref="G3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -560,489 +570,517 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43459</v>
+      <c r="A2" s="19">
+        <v>44494</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>30111</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+        <v>38056</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUM(C2,-C3)</f>
+        <v>1141</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F15" si="0">D2*E2</f>
+        <v>5659.36</v>
+      </c>
+      <c r="G2" s="18">
+        <v>5659.36</v>
+      </c>
+      <c r="H2" s="18">
+        <v>5659.36</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43522</v>
+        <v>44342</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>30555</v>
+        <v>36915</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C2)</f>
-        <v>444</v>
+        <f>SUM(C3,-C4)</f>
+        <v>425</v>
       </c>
       <c r="E3" s="3">
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
-        <v>2029.0800000000002</v>
-      </c>
-      <c r="G3" s="11">
-        <v>2029.08</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1998</v>
+        <f t="shared" si="0"/>
+        <v>2001.75</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2001.75</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1997.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43550</v>
+        <v>44207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>30999</v>
+        <v>36490</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D12" si="1">SUM(C4,-C3)</f>
-        <v>444</v>
+        <f>SUM(C4,-C5)</f>
+        <v>1064</v>
       </c>
       <c r="E4" s="3">
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>2029.0800000000002</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2029.08</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1998</v>
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="G4" s="18">
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="H4" s="18">
+        <v>5000.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>43557</v>
+      <c r="A5" s="4">
+        <v>44098</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>35426</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f>SUM(C5,-C6)</f>
+        <v>425</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2001.75</v>
       </c>
       <c r="G5" s="11">
-        <v>0</v>
+        <v>2001.75</v>
       </c>
       <c r="H5" s="11">
-        <v>63.6</v>
+        <v>2001.66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43585</v>
+      <c r="A6" s="4">
+        <v>44007</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>31436</v>
+        <v>35001</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
-        <v>437</v>
+        <f>SUM(C6,-C7)</f>
+        <v>445</v>
       </c>
       <c r="E6" s="3">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>1997.0900000000001</v>
+        <v>1998.0500000000002</v>
       </c>
       <c r="G6" s="11">
-        <v>1997.09</v>
+        <v>1998.05</v>
       </c>
       <c r="H6" s="11">
-        <v>1997.09</v>
+        <v>2001.66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>43679</v>
+      <c r="A7" s="4">
+        <v>43959</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>31654</v>
+        <v>34556</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>218</v>
+        <f>SUM(C7,-C8)</f>
+        <v>446</v>
       </c>
       <c r="E7" s="3">
         <v>4.49</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>978.82</v>
+        <v>2002.5400000000002</v>
       </c>
       <c r="G7" s="11">
-        <v>978.82</v>
+        <v>2002.54</v>
       </c>
       <c r="H7" s="11">
-        <v>996.26</v>
+        <v>2001.66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43746</v>
+      <c r="A8" s="4">
+        <v>43927</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>32092</v>
+        <v>34110</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>438</v>
+        <f>SUM(C8,-C9)</f>
+        <v>447</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>1966.6200000000001</v>
+        <v>2007.0300000000002</v>
       </c>
       <c r="G8" s="11">
-        <v>1966.62</v>
+        <v>2007.03</v>
       </c>
       <c r="H8" s="11">
         <v>2001.66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>43775</v>
+      <c r="A9" s="4">
+        <v>43892</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>32530</v>
+        <v>33663</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>438</v>
+        <f>SUM(C9,-C10)</f>
+        <v>445</v>
       </c>
       <c r="E9" s="3">
         <v>4.49</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>1966.6200000000001</v>
+        <v>1998.0500000000002</v>
       </c>
       <c r="G9" s="11">
-        <v>1966.62</v>
+        <v>1998.05</v>
       </c>
       <c r="H9" s="11">
         <v>2001.66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43775</v>
+      <c r="A10" s="4">
+        <v>43815</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>32550</v>
+        <v>33218</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(C10,-C11)</f>
+        <v>668</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>89.800000000000011</v>
+        <v>2999.32</v>
       </c>
       <c r="G10" s="11">
-        <v>89.8</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>2999.32</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3002.49</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43815</v>
+      <c r="A11" s="12">
+        <v>43775</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>33218</v>
+        <v>32550</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>668</v>
+        <f>SUM(C11,-C12)</f>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <v>4.49</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>2999.32</v>
+        <v>89.800000000000011</v>
       </c>
       <c r="G11" s="11">
-        <v>2999.32</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3002.49</v>
-      </c>
+        <v>89.8</v>
+      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43892</v>
+      <c r="A12" s="8">
+        <v>43775</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>33663</v>
+        <v>32530</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>445</v>
+        <f>SUM(C12,-C13)</f>
+        <v>438</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>1998.0500000000002</v>
+        <v>1966.6200000000001</v>
       </c>
       <c r="G12" s="11">
-        <v>1998.05</v>
+        <v>1966.62</v>
       </c>
       <c r="H12" s="11">
         <v>2001.66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43927</v>
+      <c r="A13" s="8">
+        <v>43746</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>34110</v>
+        <v>32092</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13" si="2">SUM(C13,-C12)</f>
-        <v>447</v>
+        <f>SUM(C13,-C14)</f>
+        <v>438</v>
       </c>
       <c r="E13" s="3">
         <v>4.49</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" ref="F13" si="3">D13*E13</f>
-        <v>2007.0300000000002</v>
+        <f t="shared" si="0"/>
+        <v>1966.6200000000001</v>
       </c>
       <c r="G13" s="11">
-        <v>2007.03</v>
+        <v>1966.62</v>
       </c>
       <c r="H13" s="11">
         <v>2001.66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43959</v>
+      <c r="A14" s="8">
+        <v>43679</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>34556</v>
+        <v>31654</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14" si="4">SUM(C14,-C13)</f>
-        <v>446</v>
+        <f>SUM(C14,-C15)</f>
+        <v>218</v>
       </c>
       <c r="E14" s="3">
         <v>4.49</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" ref="F14" si="5">D14*E14</f>
-        <v>2002.5400000000002</v>
+        <f t="shared" si="0"/>
+        <v>978.82</v>
       </c>
       <c r="G14" s="11">
-        <v>2002.54</v>
+        <v>978.82</v>
       </c>
       <c r="H14" s="11">
-        <v>2001.66</v>
+        <v>996.26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44007</v>
+      <c r="A15" s="8">
+        <v>43585</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>35001</v>
+        <v>31436</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15" si="6">SUM(C15,-C14)</f>
-        <v>445</v>
+        <f>SUM(C15,-C17)</f>
+        <v>437</v>
       </c>
       <c r="E15" s="3">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" ref="F15" si="7">D15*E15</f>
-        <v>1998.0500000000002</v>
+        <f t="shared" si="0"/>
+        <v>1997.0900000000001</v>
       </c>
       <c r="G15" s="11">
-        <v>1998.05</v>
+        <v>1997.09</v>
       </c>
       <c r="H15" s="11">
-        <v>2001.66</v>
+        <v>1997.09</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44098</v>
+      <c r="A16" s="8">
+        <v>43557</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>35426</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16" si="8">SUM(C16,-C15)</f>
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16" si="9">D16*E16</f>
-        <v>2001.75</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>2001.75</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>2001.66</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>44207</v>
+        <v>43550</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>36490</v>
+        <v>30999</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17" si="10">SUM(C17,-C16)</f>
-        <v>1064</v>
+        <f>SUM(C17,-C18)</f>
+        <v>444</v>
       </c>
       <c r="E17" s="3">
-        <v>4.71</v>
+        <v>4.57</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" ref="F17" si="11">D17*E17</f>
-        <v>5011.4399999999996</v>
-      </c>
-      <c r="G17" s="17">
-        <v>5011.4399999999996</v>
-      </c>
-      <c r="H17" s="17">
-        <v>5000.8</v>
+        <f t="shared" ref="F17:F18" si="1">D17*E17</f>
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2029.08</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44342</v>
+        <v>43522</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>36915</v>
+        <v>30555</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18" si="12">SUM(C18,-C17)</f>
-        <v>425</v>
+        <f>SUM(C18,-C19)</f>
+        <v>444</v>
       </c>
       <c r="E18" s="3">
-        <v>4.71</v>
+        <v>4.57</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18" si="13">D18*E18</f>
-        <v>2001.75</v>
-      </c>
-      <c r="G18" s="17">
-        <v>2001.75</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1997.5</v>
+        <f t="shared" si="1"/>
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2029.08</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
+      <c r="A19" s="4">
+        <v>43459</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30111</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="16">
-        <f>SUM(G3:G18)</f>
-        <v>31077.039999999994</v>
-      </c>
-      <c r="H19" s="16">
-        <f>SUM(H3:H18)</f>
-        <v>31065.360000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="17">
-        <f>SUM(H19,-G19)</f>
-        <v>-11.679999999993015</v>
+      <c r="G20" s="16">
+        <f>SUM(G2:G2)</f>
+        <v>5659.36</v>
+      </c>
+      <c r="H20" s="16">
+        <f>SUM(H2:H2)</f>
+        <v>5659.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="17">
+        <f>SUM(H20,-G20)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/78ee.xlsx
+++ b/sputnik/personal/ee/78ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -214,6 +214,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,139 +574,139 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
-        <v>44494</v>
+        <v>44543</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>38056</v>
+        <v>39156</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C3)</f>
-        <v>1141</v>
+        <f t="shared" ref="D2:D15" si="0">SUM(C2,-C3)</f>
+        <v>1100</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F15" si="0">D2*E2</f>
+        <f t="shared" ref="F2" si="1">D2*E2</f>
+        <v>5456</v>
+      </c>
+      <c r="G2" s="18">
+        <v>5456</v>
+      </c>
+      <c r="H2" s="18">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>44494</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38056</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>1141</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F16" si="2">D3*E3</f>
         <v>5659.36</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G3" s="18">
         <v>5659.36</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H3" s="18">
         <v>5659.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>44342</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>36915</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C4)</f>
-        <v>425</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" si="0"/>
-        <v>2001.75</v>
-      </c>
-      <c r="G3" s="18">
-        <v>2001.75</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1997.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44207</v>
+        <v>44342</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>36490</v>
+        <v>36915</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C5)</f>
-        <v>1064</v>
+        <f t="shared" si="0"/>
+        <v>425</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>5011.4399999999996</v>
+        <f t="shared" si="2"/>
+        <v>2001.75</v>
       </c>
       <c r="G4" s="18">
-        <v>5011.4399999999996</v>
+        <v>2001.75</v>
       </c>
       <c r="H4" s="18">
-        <v>5000.8</v>
+        <v>1997.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44098</v>
+        <v>44207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>35426</v>
+        <v>36490</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C6)</f>
-        <v>425</v>
+        <f t="shared" si="0"/>
+        <v>1064</v>
       </c>
       <c r="E5" s="3">
         <v>4.71</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="0"/>
-        <v>2001.75</v>
-      </c>
-      <c r="G5" s="11">
-        <v>2001.75</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2001.66</v>
+        <f t="shared" si="2"/>
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="G5" s="18">
+        <v>5011.4399999999996</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5000.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44007</v>
+        <v>44098</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>35001</v>
+        <v>35426</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C7)</f>
-        <v>445</v>
+        <f t="shared" si="0"/>
+        <v>425</v>
       </c>
       <c r="E6" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>1998.0500000000002</v>
+        <f t="shared" si="2"/>
+        <v>2001.75</v>
       </c>
       <c r="G6" s="11">
-        <v>1998.05</v>
+        <v>2001.75</v>
       </c>
       <c r="H6" s="11">
         <v>2001.66</v>
@@ -711,27 +714,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43959</v>
+        <v>44007</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>34556</v>
+        <v>35001</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C8)</f>
-        <v>446</v>
+        <f t="shared" si="0"/>
+        <v>445</v>
       </c>
       <c r="E7" s="3">
         <v>4.49</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>2002.5400000000002</v>
+        <f t="shared" si="2"/>
+        <v>1998.0500000000002</v>
       </c>
       <c r="G7" s="11">
-        <v>2002.54</v>
+        <v>1998.05</v>
       </c>
       <c r="H7" s="11">
         <v>2001.66</v>
@@ -739,27 +742,27 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43927</v>
+        <v>43959</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>34110</v>
+        <v>34556</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C9)</f>
-        <v>447</v>
+        <f t="shared" si="0"/>
+        <v>446</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>2007.0300000000002</v>
+        <f t="shared" si="2"/>
+        <v>2002.5400000000002</v>
       </c>
       <c r="G8" s="11">
-        <v>2007.03</v>
+        <v>2002.54</v>
       </c>
       <c r="H8" s="11">
         <v>2001.66</v>
@@ -767,27 +770,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43892</v>
+        <v>43927</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>33663</v>
+        <v>34110</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C10)</f>
-        <v>445</v>
+        <f t="shared" si="0"/>
+        <v>447</v>
       </c>
       <c r="E9" s="3">
         <v>4.49</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>1998.0500000000002</v>
+        <f t="shared" si="2"/>
+        <v>2007.0300000000002</v>
       </c>
       <c r="G9" s="11">
-        <v>1998.05</v>
+        <v>2007.03</v>
       </c>
       <c r="H9" s="11">
         <v>2001.66</v>
@@ -795,105 +798,105 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43815</v>
+        <v>43892</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>33218</v>
+        <v>33663</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C11)</f>
-        <v>668</v>
+        <f t="shared" si="0"/>
+        <v>445</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>2999.32</v>
+        <f t="shared" si="2"/>
+        <v>1998.0500000000002</v>
       </c>
       <c r="G10" s="11">
-        <v>2999.32</v>
+        <v>1998.05</v>
       </c>
       <c r="H10" s="11">
-        <v>3002.49</v>
+        <v>2001.66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>43775</v>
+      <c r="A11" s="4">
+        <v>43815</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>32550</v>
+        <v>33218</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C12)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>668</v>
       </c>
       <c r="E11" s="3">
         <v>4.49</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>89.800000000000011</v>
+        <f t="shared" si="2"/>
+        <v>2999.32</v>
       </c>
       <c r="G11" s="11">
-        <v>89.8</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>2999.32</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3002.49</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="12">
         <v>43775</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>32530</v>
+        <v>32550</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(C12,-C13)</f>
-        <v>438</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>1966.6200000000001</v>
+        <f t="shared" si="2"/>
+        <v>89.800000000000011</v>
       </c>
       <c r="G12" s="11">
-        <v>1966.62</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2001.66</v>
-      </c>
+        <v>89.8</v>
+      </c>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>43746</v>
+        <v>43775</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>32092</v>
+        <v>32530</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C14)</f>
+        <f t="shared" si="0"/>
         <v>438</v>
       </c>
       <c r="E13" s="3">
         <v>4.49</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1966.6200000000001</v>
       </c>
       <c r="G13" s="11">
@@ -905,123 +908,123 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>43679</v>
+        <v>43746</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>31654</v>
+        <v>32092</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C15)</f>
-        <v>218</v>
+        <f t="shared" si="0"/>
+        <v>438</v>
       </c>
       <c r="E14" s="3">
         <v>4.49</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>978.82</v>
+        <f t="shared" si="2"/>
+        <v>1966.6200000000001</v>
       </c>
       <c r="G14" s="11">
-        <v>978.82</v>
+        <v>1966.62</v>
       </c>
       <c r="H14" s="11">
-        <v>996.26</v>
+        <v>2001.66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>43585</v>
+        <v>43679</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>31436</v>
+        <v>31654</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C17)</f>
-        <v>437</v>
+        <f t="shared" si="0"/>
+        <v>218</v>
       </c>
       <c r="E15" s="3">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
-        <v>1997.0900000000001</v>
+        <f t="shared" si="2"/>
+        <v>978.82</v>
       </c>
       <c r="G15" s="11">
-        <v>1997.09</v>
+        <v>978.82</v>
       </c>
       <c r="H15" s="11">
-        <v>1997.09</v>
+        <v>996.26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
+        <v>43585</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>31436</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C18)</f>
+        <v>437</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
+        <v>1997.0900000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1997.09</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1997.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>43557</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
         <v>63.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43550</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>30999</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM(C17,-C18)</f>
-        <v>444</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" ref="F17:F18" si="1">D17*E17</f>
-        <v>2029.0800000000002</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2029.08</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43522</v>
+        <v>43550</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>30555</v>
+        <v>30999</v>
       </c>
       <c r="D18" s="3">
         <f>SUM(C18,-C19)</f>
@@ -1031,7 +1034,7 @@
         <v>4.57</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F18:F19" si="3">D18*E18</f>
         <v>2029.0800000000002</v>
       </c>
       <c r="G18" s="11">
@@ -1043,43 +1046,71 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
+        <v>43522</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30555</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C20)</f>
+        <v>444</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="3"/>
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2029.08</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>43459</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
         <v>30111</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="16">
-        <f>SUM(G2:G2)</f>
+      <c r="G21" s="16">
+        <f>SUM(G3:G3)</f>
         <v>5659.36</v>
       </c>
-      <c r="H20" s="16">
-        <f>SUM(H2:H2)</f>
+      <c r="H21" s="16">
+        <f>SUM(H3:H3)</f>
         <v>5659.36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="17">
-        <f>SUM(H20,-G20)</f>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="17">
+        <f>SUM(H21,-G21)</f>
         <v>0</v>
       </c>
     </row>
